--- a/first.xlsx
+++ b/first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Треккер</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +431,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/first.xlsx
+++ b/first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Треккер</t>
   </si>
@@ -23,21 +23,6 @@
   </si>
   <si>
     <t>постащик</t>
-  </si>
-  <si>
-    <t>bi868</t>
-  </si>
-  <si>
-    <t>uonline</t>
-  </si>
-  <si>
-    <t>bi910</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>biConnect</t>
   </si>
 </sst>
 </file>
@@ -379,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,47 +384,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1700</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2800</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3500</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>3500</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
